--- a/biology/Zoologie/Cochon_vietnamien/Cochon_vietnamien.xlsx
+++ b/biology/Zoologie/Cochon_vietnamien/Cochon_vietnamien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cochon vietnamien est une race de porc utilisée comme animal de compagnie, et qui fait partie des nouveaux animaux de compagnie (NAC). Il s'agit d'un cochon nain, obtenu par croisement à partir de différents cochons originaires de l'Asie du Sud-Est[1], et notamment du Vietnam.
+Le cochon vietnamien est une race de porc utilisée comme animal de compagnie, et qui fait partie des nouveaux animaux de compagnie (NAC). Il s'agit d'un cochon nain, obtenu par croisement à partir de différents cochons originaires de l'Asie du Sud-Est, et notamment du Vietnam.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cochon vietnamien est un cochon domestiqué originaire du Vietnam. L’appellation cochon vietnamien est un mélange de différentes races originaires du Vietnam. Bien plus petit que les cochons de ferme (300 kg adulte) américains ou européens, leur taille est comparable à celle d’un chien moyen à grand, avec un poids cependant supérieur (entre 40 et 150 kg) en raison d’une densité corporelle plus importante. La taille ainsi que les oreilles et la queue droites des cochons vietnamiens permet de facilement les différencier des autres races. La photo en haut de la page montre un cochon en surpoids. Des bourrelets au-dessus des yeux et des bajoues sont de bons indicateurs visuel de surpoids. Même s’ils ont effectivement un ventre rond et le dos creux, les hanches doivent rester faciles à déceler d’une pression faible, et les yeux bien visibles.
 Les cochons vietnamiens appartiennent à la même espèce que les cochons de ferme et les sangliers, et ils peuvent donc être croisés. Ce qui est formellement interdit en France[réf. nécessaire]. Le ministère de l’Agriculture suédois apporte son aide au Vietnam pour leur production porcine depuis le milieu des années 80 en y introduisant des races plus massives. Les gouvernements vietnamiens et suédois ont cependant réalisé que désormais, la variété autochtone de cochons vietnamiens n’existait plus que dans les régions montagneuses du Vietnam et de la Thaïlande. Le gouvernement vietnamien a commencé à verser des aides financières aux éleveurs locaux qui pratiquent toujours l’élevage des cochons vietnamiens autochtones, ces cochons se reproduisant moins facilement que les autres races.
@@ -545,7 +559,9 @@
           <t>Animaux de compagnie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cochons sont très intelligents et leur adoption nécessite une adaptation préalable de la maison. Ils auront vite fait d’apprendre à ouvrir la porte du réfrigérateur, ils attraperont les livres de l’étagère, et ne feront qu’une bouchée de toute nourriture à portée de groin.
 Ils ont tendance à utiliser tout matériel transportable, comme les journaux, pour se créer une litière. Les cochons vietnamiens sont souvent utilisés comme nouveaux animaux de compagnie dans de nombreux pays. Ils sont intelligents et ils apprendront facilement des tours en échange d’une friandise. Beaucoup de propriétaires les promènent à l’aide d’un harnais. Les cochons peuvent faire leurs besoins dans une litière comme les chats, mais il est plus facile de les entraîner à faire leur besoin dans le jardin comme la plupart des chiens.
